--- a/Data/EC/NIT-9009540403.xlsx
+++ b/Data/EC/NIT-9009540403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142903E9-A4D7-40BD-B69A-AE1A526E4AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9704C434-2D6D-4134-8EC2-7CAAB81671B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8F1847BD-0E8F-489B-9226-DCD2EBA1C0B9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{035DB9EE-C371-4802-BB74-F9EDA5A3CF18}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,90 +71,90 @@
     <t>LUIS RAFAEL ROCA ZABALETA</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
     <t>1810</t>
   </si>
   <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
     <t>1143346716</t>
   </si>
   <si>
@@ -170,178 +170,178 @@
     <t>ANTONY CABARCAS MORENO</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
     <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -385,7 +385,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,7 +440,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -453,9 +455,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -655,23 +655,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -699,10 +699,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,13 +740,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -755,7 +755,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35F3B90D-D605-7455-3089-4B127FD30D30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B71760-6561-7E81-262F-F183A23C5AA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +777,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1106,28 +1106,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEED1854-C770-4332-B9B8-06DA44E7AC9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACCD2A9-14C0-439B-8825-9E1363DB1A31}">
   <dimension ref="B2:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -1140,7 +1140,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1151,7 +1151,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1162,7 +1162,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1173,8 +1173,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
@@ -1189,8 +1189,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1205,8 +1205,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
@@ -1221,8 +1221,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>105</v>
       </c>
@@ -1241,7 +1241,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23958</v>
+        <v>29200</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1293,7 +1293,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29200</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1316,7 +1316,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1362,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1477,7 +1477,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1500,7 +1500,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1523,7 +1523,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1546,7 +1546,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1569,7 +1569,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1615,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1684,7 +1684,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1799,7 +1799,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1845,7 +1845,7 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>29200</v>
+        <v>31249</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1891,7 +1891,7 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>29200</v>
+        <v>23958</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1914,7 +1914,7 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1937,7 +1937,7 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1948,10 +1948,10 @@
         <v>43</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
-        <v>15458</v>
+        <v>33125</v>
       </c>
       <c r="G45" s="18">
         <v>828116</v>
@@ -1960,7 +1960,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>43</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" s="18">
         <v>33125</v>
@@ -1983,7 +1983,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>43</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F47" s="18">
         <v>33125</v>
@@ -2006,7 +2006,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F48" s="18">
         <v>33125</v>
@@ -2029,7 +2029,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>43</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F49" s="18">
         <v>33125</v>
@@ -2052,7 +2052,7 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>43</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F50" s="18">
         <v>33125</v>
@@ -2075,7 +2075,7 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>43</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F51" s="18">
         <v>33125</v>
@@ -2098,7 +2098,7 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>43</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F52" s="18">
         <v>33125</v>
@@ -2121,7 +2121,7 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
         <v>33125</v>
@@ -2144,7 +2144,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>43</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F54" s="18">
         <v>33125</v>
@@ -2167,7 +2167,7 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>43</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F55" s="18">
         <v>33125</v>
@@ -2190,7 +2190,7 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>43</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F56" s="18">
         <v>33125</v>
@@ -2213,7 +2213,7 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>43</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="18">
         <v>33125</v>
@@ -2236,7 +2236,7 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>43</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
         <v>33125</v>
@@ -2259,7 +2259,7 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>43</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
         <v>33125</v>
@@ -2282,7 +2282,7 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>43</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
         <v>33125</v>
@@ -2305,7 +2305,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>43</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
         <v>33125</v>
@@ -2328,7 +2328,7 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>43</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
         <v>33125</v>
@@ -2351,7 +2351,7 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>43</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F63" s="18">
         <v>33125</v>
@@ -2374,7 +2374,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>43</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F64" s="18">
         <v>33125</v>
@@ -2397,7 +2397,7 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>43</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F65" s="18">
         <v>33125</v>
@@ -2420,7 +2420,7 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>43</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66" s="18">
         <v>33125</v>
@@ -2443,7 +2443,7 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>43</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F67" s="18">
         <v>33125</v>
@@ -2466,7 +2466,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
         <v>33125</v>
@@ -2489,7 +2489,7 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>43</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F69" s="18">
         <v>33125</v>
@@ -2512,7 +2512,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>43</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F70" s="18">
         <v>33125</v>
@@ -2535,7 +2535,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>43</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F71" s="18">
         <v>33125</v>
@@ -2558,7 +2558,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>43</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F72" s="18">
         <v>33125</v>
@@ -2581,7 +2581,7 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>43</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F73" s="18">
         <v>33125</v>
@@ -2604,7 +2604,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>43</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F74" s="18">
         <v>33125</v>
@@ -2627,7 +2627,7 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>43</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F75" s="18">
         <v>33125</v>
@@ -2650,7 +2650,7 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>43</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F76" s="18">
         <v>33125</v>
@@ -2673,7 +2673,7 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>43</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F77" s="18">
         <v>33125</v>
@@ -2696,7 +2696,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>43</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F78" s="18">
         <v>33125</v>
@@ -2719,7 +2719,7 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>43</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F79" s="18">
         <v>33125</v>
@@ -2742,7 +2742,7 @@
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>43</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F80" s="18">
         <v>33125</v>
@@ -2765,7 +2765,7 @@
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>43</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F81" s="18">
         <v>33125</v>
@@ -2788,7 +2788,7 @@
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>43</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F82" s="18">
         <v>33125</v>
@@ -2811,7 +2811,7 @@
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>43</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F83" s="18">
         <v>33125</v>
@@ -2834,7 +2834,7 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>43</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F84" s="18">
         <v>33125</v>
@@ -2857,7 +2857,7 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>43</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F85" s="18">
         <v>33125</v>
@@ -2880,7 +2880,7 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>43</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F86" s="18">
         <v>33125</v>
@@ -2903,7 +2903,7 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>43</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F87" s="18">
         <v>33125</v>
@@ -2926,7 +2926,7 @@
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>43</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F88" s="18">
         <v>33125</v>
@@ -2949,7 +2949,7 @@
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>43</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F89" s="18">
         <v>33125</v>
@@ -2972,7 +2972,7 @@
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>43</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F90" s="18">
         <v>33125</v>
@@ -2995,7 +2995,7 @@
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>43</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F91" s="18">
         <v>33125</v>
@@ -3018,7 +3018,7 @@
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>43</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F92" s="18">
         <v>33125</v>
@@ -3041,7 +3041,7 @@
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>43</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="18">
         <v>33125</v>
@@ -3064,7 +3064,7 @@
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>43</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F94" s="18">
         <v>33125</v>
@@ -3087,7 +3087,7 @@
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>43</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F95" s="18">
         <v>33125</v>
@@ -3110,7 +3110,7 @@
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>43</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F96" s="18">
         <v>33125</v>
@@ -3133,7 +3133,7 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>43</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F97" s="18">
         <v>33125</v>
@@ -3156,7 +3156,7 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>43</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F98" s="18">
         <v>33125</v>
@@ -3179,7 +3179,7 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>43</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F99" s="18">
         <v>33125</v>
@@ -3202,7 +3202,7 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>43</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F100" s="18">
         <v>33125</v>
@@ -3225,7 +3225,7 @@
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F101" s="18">
         <v>33125</v>
@@ -3248,7 +3248,7 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>43</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F102" s="18">
         <v>33125</v>
@@ -3271,7 +3271,7 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="21" t="s">
         <v>8</v>
       </c>
@@ -3282,10 +3282,10 @@
         <v>43</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="F103" s="24">
-        <v>33125</v>
+        <v>15458</v>
       </c>
       <c r="G103" s="24">
         <v>828116</v>
@@ -3294,7 +3294,7 @@
       <c r="I103" s="25"/>
       <c r="J103" s="26"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="32" t="s">
         <v>111</v>
       </c>
@@ -3305,7 +3305,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="32" t="s">
         <v>110</v>
       </c>

--- a/Data/EC/NIT-9009540403.xlsx
+++ b/Data/EC/NIT-9009540403.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9704C434-2D6D-4134-8EC2-7CAAB81671B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B310D251-8FD9-4687-8FCA-D9218959D2F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{035DB9EE-C371-4802-BB74-F9EDA5A3CF18}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F763D884-E7BD-429E-8CC3-E1DB7E590B2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -385,7 +385,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,9 +440,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -455,7 +453,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -649,29 +649,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,19 +690,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -740,13 +746,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>496450</xdr:colOff>
+      <xdr:colOff>667900</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259200</xdr:colOff>
+      <xdr:colOff>430650</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -755,7 +761,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7B71760-6561-7E81-262F-F183A23C5AA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F512510-3C98-117A-FD02-0CE49438D947}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +783,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="750450" y="246450"/>
+          <a:off x="921900" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1106,80 +1112,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACCD2A9-14C0-439B-8825-9E1363DB1A31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88A69DD7-BDB5-4405-8D3D-C8FA3D49C996}">
   <dimension ref="B2:J109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1189,13 +1195,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9009540403</v>
       </c>
@@ -1205,13 +1211,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>2786227</v>
       </c>
@@ -1221,8 +1227,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>105</v>
       </c>
@@ -1241,7 +1247,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1280,20 +1286,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>29200</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>781242</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1303,20 +1309,20 @@
       <c r="D17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>29200</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>781242</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1326,20 +1332,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>29200</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>781242</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1349,20 +1355,20 @@
       <c r="D19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>29200</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>781242</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1372,20 +1378,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>29200</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>781242</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1395,20 +1401,20 @@
       <c r="D21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>29200</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>781242</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1418,20 +1424,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>29200</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>781242</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1441,20 +1447,20 @@
       <c r="D23" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>29200</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>781242</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1464,20 +1470,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>29200</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>781242</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1487,20 +1493,20 @@
       <c r="D25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>29200</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>781242</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1510,20 +1516,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>29200</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>781242</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1533,20 +1539,20 @@
       <c r="D27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>29200</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>781242</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1556,20 +1562,20 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>29200</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>781242</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
@@ -1579,20 +1585,20 @@
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="19">
         <v>29200</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="19">
         <v>781242</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="21"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
@@ -1602,20 +1608,20 @@
       <c r="D30" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="19">
         <v>29200</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="19">
         <v>781242</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
@@ -1625,20 +1631,20 @@
       <c r="D31" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="19">
         <v>29200</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="19">
         <v>781242</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10">
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
@@ -1648,20 +1654,20 @@
       <c r="D32" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="19">
         <v>29200</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="19">
         <v>781242</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10">
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="21"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
@@ -1671,20 +1677,20 @@
       <c r="D33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="19">
         <v>29200</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="19">
         <v>781242</v>
       </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10">
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
@@ -1694,20 +1700,20 @@
       <c r="D34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="19">
         <v>29200</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G34" s="19">
         <v>781242</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10">
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
@@ -1717,20 +1723,20 @@
       <c r="D35" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="19">
         <v>29200</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G35" s="19">
         <v>781242</v>
       </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="2:10">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="21"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
@@ -1740,20 +1746,20 @@
       <c r="D36" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="E36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="19">
         <v>29200</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G36" s="19">
         <v>781242</v>
       </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="2:10">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
@@ -1763,20 +1769,20 @@
       <c r="D37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="19">
         <v>29200</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G37" s="19">
         <v>781242</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
@@ -1786,20 +1792,20 @@
       <c r="D38" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="19">
         <v>29200</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G38" s="19">
         <v>781242</v>
       </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="21"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
@@ -1809,20 +1815,20 @@
       <c r="D39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F39" s="19">
         <v>29200</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="19">
         <v>781242</v>
       </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10">
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="21"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
@@ -1832,20 +1838,20 @@
       <c r="D40" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="19">
         <v>29200</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>781242</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="21"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
@@ -1855,20 +1861,20 @@
       <c r="D41" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="19">
         <v>29200</v>
       </c>
-      <c r="G41" s="18">
+      <c r="G41" s="19">
         <v>781242</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
@@ -1878,20 +1884,20 @@
       <c r="D42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="19">
         <v>31249</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="19">
         <v>781242</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
@@ -1901,20 +1907,20 @@
       <c r="D43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="19">
         <v>23958</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="19">
         <v>781242</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="20"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1924,20 +1930,20 @@
       <c r="D44" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="19">
         <v>35112</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="19">
         <v>1300000</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="20"/>
-    </row>
-    <row r="45" spans="2:10">
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="21"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
@@ -1947,20 +1953,20 @@
       <c r="D45" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F45" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G45" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="20"/>
-    </row>
-    <row r="46" spans="2:10">
+      <c r="F45" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G45" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
@@ -1970,20 +1976,20 @@
       <c r="D46" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F46" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G46" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="20"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="F46" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G46" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
@@ -1993,20 +1999,20 @@
       <c r="D47" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="16" t="s">
+      <c r="E47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G47" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="20"/>
-    </row>
-    <row r="48" spans="2:10">
+      <c r="F47" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G47" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
@@ -2016,20 +2022,20 @@
       <c r="D48" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F48" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G48" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="20"/>
-    </row>
-    <row r="49" spans="2:10">
+      <c r="F48" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G48" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
@@ -2039,20 +2045,20 @@
       <c r="D49" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F49" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G49" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="F49" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G49" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
@@ -2062,20 +2068,20 @@
       <c r="D50" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G50" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10">
+      <c r="F50" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G50" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
@@ -2085,20 +2091,20 @@
       <c r="D51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F51" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G51" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10">
+      <c r="F51" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G51" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
@@ -2108,20 +2114,20 @@
       <c r="D52" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F52" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G52" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10">
+      <c r="F52" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G52" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
@@ -2131,20 +2137,20 @@
       <c r="D53" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="F53" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G53" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="F53" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G53" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="21"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
@@ -2154,20 +2160,20 @@
       <c r="D54" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F54" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G54" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="F54" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G54" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
@@ -2177,20 +2183,20 @@
       <c r="D55" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="16" t="s">
+      <c r="E55" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F55" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G55" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="F55" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G55" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
@@ -2200,20 +2206,20 @@
       <c r="D56" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G56" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="20"/>
-    </row>
-    <row r="57" spans="2:10">
+      <c r="F56" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G56" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
@@ -2223,20 +2229,20 @@
       <c r="D57" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="16" t="s">
+      <c r="E57" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F57" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G57" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="20"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="F57" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G57" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
@@ -2246,20 +2252,20 @@
       <c r="D58" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="16" t="s">
+      <c r="E58" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G58" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="20"/>
-    </row>
-    <row r="59" spans="2:10">
+      <c r="F58" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G58" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
@@ -2269,20 +2275,20 @@
       <c r="D59" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F59" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G59" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10">
+      <c r="F59" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G59" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
@@ -2292,20 +2298,20 @@
       <c r="D60" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F60" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G60" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="F60" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G60" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="21"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
@@ -2315,20 +2321,20 @@
       <c r="D61" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="16" t="s">
+      <c r="E61" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F61" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G61" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10">
+      <c r="F61" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G61" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="21"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
@@ -2338,20 +2344,20 @@
       <c r="D62" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="F62" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G62" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10">
+      <c r="F62" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G62" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="21"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
@@ -2361,20 +2367,20 @@
       <c r="D63" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="16" t="s">
+      <c r="E63" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F63" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G63" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="20"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="F63" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G63" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
@@ -2384,20 +2390,20 @@
       <c r="D64" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="16" t="s">
+      <c r="E64" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="F64" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G64" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="20"/>
-    </row>
-    <row r="65" spans="2:10">
+      <c r="F64" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G64" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H64" s="20"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
@@ -2407,20 +2413,20 @@
       <c r="D65" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="16" t="s">
+      <c r="E65" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G65" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="20"/>
-    </row>
-    <row r="66" spans="2:10">
+      <c r="F65" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G65" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H65" s="20"/>
+      <c r="I65" s="20"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
@@ -2430,20 +2436,20 @@
       <c r="D66" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="16" t="s">
+      <c r="E66" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F66" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G66" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-    </row>
-    <row r="67" spans="2:10">
+      <c r="F66" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G66" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
@@ -2453,20 +2459,20 @@
       <c r="D67" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="F67" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G67" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="2:10">
+      <c r="F67" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G67" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
@@ -2476,20 +2482,20 @@
       <c r="D68" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="16" t="s">
+      <c r="E68" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G68" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="20"/>
-    </row>
-    <row r="69" spans="2:10">
+      <c r="F68" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G68" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H68" s="20"/>
+      <c r="I68" s="20"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
@@ -2499,20 +2505,20 @@
       <c r="D69" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F69" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G69" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="20"/>
-    </row>
-    <row r="70" spans="2:10">
+      <c r="F69" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G69" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="21"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
@@ -2522,20 +2528,20 @@
       <c r="D70" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G70" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="20"/>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="F70" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G70" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H70" s="20"/>
+      <c r="I70" s="20"/>
+      <c r="J70" s="21"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
@@ -2545,20 +2551,20 @@
       <c r="D71" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E71" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F71" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G71" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="20"/>
-    </row>
-    <row r="72" spans="2:10">
+      <c r="F71" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G71" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H71" s="20"/>
+      <c r="I71" s="20"/>
+      <c r="J71" s="21"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
@@ -2568,20 +2574,20 @@
       <c r="D72" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="16" t="s">
+      <c r="E72" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F72" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G72" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="20"/>
-    </row>
-    <row r="73" spans="2:10">
+      <c r="F72" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G72" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
@@ -2591,20 +2597,20 @@
       <c r="D73" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="16" t="s">
+      <c r="E73" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F73" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G73" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="20"/>
-    </row>
-    <row r="74" spans="2:10">
+      <c r="F73" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G73" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
@@ -2614,20 +2620,20 @@
       <c r="D74" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="F74" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G74" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="20"/>
-    </row>
-    <row r="75" spans="2:10">
+      <c r="F74" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G74" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
@@ -2637,20 +2643,20 @@
       <c r="D75" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="16" t="s">
+      <c r="E75" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G75" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10">
+      <c r="F75" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G75" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
@@ -2660,20 +2666,20 @@
       <c r="D76" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="16" t="s">
+      <c r="E76" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G76" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="20"/>
-    </row>
-    <row r="77" spans="2:10">
+      <c r="F76" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G76" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
@@ -2683,20 +2689,20 @@
       <c r="D77" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="16" t="s">
+      <c r="E77" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F77" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G77" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="20"/>
-    </row>
-    <row r="78" spans="2:10">
+      <c r="F77" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G77" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
@@ -2706,20 +2712,20 @@
       <c r="D78" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F78" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G78" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="20"/>
-    </row>
-    <row r="79" spans="2:10">
+      <c r="F78" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G78" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
@@ -2729,20 +2735,20 @@
       <c r="D79" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E79" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="F79" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G79" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="20"/>
-    </row>
-    <row r="80" spans="2:10">
+      <c r="F79" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G79" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
@@ -2752,20 +2758,20 @@
       <c r="D80" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="16" t="s">
+      <c r="E80" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="F80" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G80" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="20"/>
-    </row>
-    <row r="81" spans="2:10">
+      <c r="F80" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G80" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
@@ -2775,20 +2781,20 @@
       <c r="D81" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="16" t="s">
+      <c r="E81" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F81" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G81" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="20"/>
-    </row>
-    <row r="82" spans="2:10">
+      <c r="F81" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G81" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
+      <c r="J81" s="21"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
@@ -2798,20 +2804,20 @@
       <c r="D82" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G82" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="2:10">
+      <c r="F82" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G82" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
@@ -2821,20 +2827,20 @@
       <c r="D83" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="16" t="s">
+      <c r="E83" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="F83" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G83" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="20"/>
-    </row>
-    <row r="84" spans="2:10">
+      <c r="F83" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G83" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H83" s="20"/>
+      <c r="I83" s="20"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
@@ -2844,20 +2850,20 @@
       <c r="D84" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="16" t="s">
+      <c r="E84" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F84" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G84" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="20"/>
-    </row>
-    <row r="85" spans="2:10">
+      <c r="F84" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G84" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H84" s="20"/>
+      <c r="I84" s="20"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
@@ -2867,20 +2873,20 @@
       <c r="D85" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E85" s="16" t="s">
+      <c r="E85" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F85" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G85" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10">
+      <c r="F85" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G85" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
@@ -2890,20 +2896,20 @@
       <c r="D86" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="F86" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G86" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10">
+      <c r="F86" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G86" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
@@ -2913,20 +2919,20 @@
       <c r="D87" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E87" s="16" t="s">
+      <c r="E87" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G87" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10">
+      <c r="F87" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G87" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
@@ -2936,20 +2942,20 @@
       <c r="D88" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E88" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="F88" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G88" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10">
+      <c r="F88" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G88" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
@@ -2959,20 +2965,20 @@
       <c r="D89" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="16" t="s">
+      <c r="E89" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G89" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
-    </row>
-    <row r="90" spans="2:10">
+      <c r="F89" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G89" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
@@ -2982,20 +2988,20 @@
       <c r="D90" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F90" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G90" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
-    </row>
-    <row r="91" spans="2:10">
+      <c r="F90" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G90" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
@@ -3005,20 +3011,20 @@
       <c r="D91" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="16" t="s">
+      <c r="E91" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F91" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G91" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10">
+      <c r="F91" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G91" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
@@ -3028,20 +3034,20 @@
       <c r="D92" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="16" t="s">
+      <c r="E92" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G92" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="20"/>
-    </row>
-    <row r="93" spans="2:10">
+      <c r="F92" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G92" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
@@ -3051,20 +3057,20 @@
       <c r="D93" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G93" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="20"/>
-    </row>
-    <row r="94" spans="2:10">
+      <c r="F93" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G93" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
@@ -3074,20 +3080,20 @@
       <c r="D94" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="F94" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G94" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="20"/>
-    </row>
-    <row r="95" spans="2:10">
+      <c r="F94" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G94" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
@@ -3097,20 +3103,20 @@
       <c r="D95" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="F95" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G95" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="20"/>
-    </row>
-    <row r="96" spans="2:10">
+      <c r="F95" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G95" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H95" s="20"/>
+      <c r="I95" s="20"/>
+      <c r="J95" s="21"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
@@ -3120,20 +3126,20 @@
       <c r="D96" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E96" s="16" t="s">
+      <c r="E96" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="F96" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G96" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="20"/>
-    </row>
-    <row r="97" spans="2:10">
+      <c r="F96" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G96" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H96" s="20"/>
+      <c r="I96" s="20"/>
+      <c r="J96" s="21"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
@@ -3143,20 +3149,20 @@
       <c r="D97" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="F97" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G97" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="20"/>
-    </row>
-    <row r="98" spans="2:10">
+      <c r="F97" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G97" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H97" s="20"/>
+      <c r="I97" s="20"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
@@ -3166,20 +3172,20 @@
       <c r="D98" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F98" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G98" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="20"/>
-    </row>
-    <row r="99" spans="2:10">
+      <c r="F98" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G98" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H98" s="20"/>
+      <c r="I98" s="20"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
@@ -3189,20 +3195,20 @@
       <c r="D99" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E99" s="16" t="s">
+      <c r="E99" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F99" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G99" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="20"/>
-    </row>
-    <row r="100" spans="2:10">
+      <c r="F99" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G99" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H99" s="20"/>
+      <c r="I99" s="20"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
@@ -3212,20 +3218,20 @@
       <c r="D100" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E100" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F100" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G100" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="20"/>
-    </row>
-    <row r="101" spans="2:10">
+      <c r="F100" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G100" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H100" s="20"/>
+      <c r="I100" s="20"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
@@ -3235,20 +3241,20 @@
       <c r="D101" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E101" s="16" t="s">
+      <c r="E101" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="F101" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G101" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-    </row>
-    <row r="102" spans="2:10">
+      <c r="F101" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G101" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H101" s="20"/>
+      <c r="I101" s="20"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
@@ -3258,58 +3264,58 @@
       <c r="D102" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="F102" s="18">
-        <v>33125</v>
-      </c>
-      <c r="G102" s="18">
-        <v>828116</v>
-      </c>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="20"/>
-    </row>
-    <row r="103" spans="2:10">
-      <c r="B103" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D103" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="22" t="s">
+      <c r="F102" s="19">
+        <v>33125</v>
+      </c>
+      <c r="G102" s="19">
+        <v>828116</v>
+      </c>
+      <c r="H102" s="20"/>
+      <c r="I102" s="20"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B103" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F103" s="24">
+      <c r="F103" s="26">
         <v>15458</v>
       </c>
-      <c r="G103" s="24">
-        <v>828116</v>
-      </c>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="26"/>
-    </row>
-    <row r="108" spans="2:10">
-      <c r="B108" s="32" t="s">
+      <c r="G103" s="26">
+        <v>828116</v>
+      </c>
+      <c r="H103" s="27"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="28"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C108" s="32"/>
+      <c r="C108" s="34"/>
       <c r="H108" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="2:10">
-      <c r="B109" s="32" t="s">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C109" s="32"/>
+      <c r="C109" s="34"/>
       <c r="H109" s="1" t="s">
         <v>112</v>
       </c>
